--- a/template036.xlsx
+++ b/template036.xlsx
@@ -1417,7 +1417,7 @@
   <dimension ref="A1:R65"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B7"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1481,9 +1481,7 @@
       <c r="C3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="11">
-        <v>24209</v>
-      </c>
+      <c r="D3" s="11"/>
       <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
@@ -1506,7 +1504,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="16.35" spans="1:11">
+    <row r="4" ht="15.75" spans="1:11">
       <c r="A4" s="14" t="s">
         <v>15</v>
       </c>
@@ -1520,39 +1518,31 @@
       <c r="D4" s="17">
         <v>998</v>
       </c>
-      <c r="E4" s="18">
-        <v>3687.66602</v>
-      </c>
-      <c r="F4" s="19">
-        <v>3745.65747</v>
-      </c>
-      <c r="G4" s="19">
-        <v>3760.25293</v>
-      </c>
-      <c r="H4" s="17">
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="17" t="e">
         <f>AVERAGE(E4:G4)</f>
-        <v>3731.19214</v>
-      </c>
-      <c r="I4" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I4" s="17" t="e">
         <f>STDEV(E4:G4)</f>
-        <v>38.3946507321489</v>
-      </c>
-      <c r="J4" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J4" s="17" t="e">
         <f>100*I4/H4</f>
-        <v>1.02901832153165</v>
-      </c>
-      <c r="K4" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K4" s="17" t="e">
         <f>H4/B8*B4/C10*C8/D4*C6*C4</f>
-        <v>99.2704346562205</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" ht="15.6" spans="1:11">
       <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="18">
-        <v>3677.96875</v>
-      </c>
+      <c r="B5" s="18"/>
       <c r="C5" s="10" t="s">
         <v>16</v>
       </c>
@@ -1581,52 +1571,42 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" ht="16.35" spans="1:11">
+    <row r="6" ht="15.75" spans="1:11">
       <c r="A6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="20">
-        <v>3688.12012</v>
-      </c>
+      <c r="B6" s="20"/>
       <c r="C6" s="16">
         <v>1</v>
       </c>
       <c r="D6" s="17">
         <v>991</v>
       </c>
-      <c r="E6" s="21">
-        <v>3690.40015</v>
-      </c>
-      <c r="F6" s="19">
-        <v>3755.44409</v>
-      </c>
-      <c r="G6" s="19">
-        <v>3789.65503</v>
-      </c>
-      <c r="H6" s="17">
+      <c r="E6" s="21"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="17" t="e">
         <f>AVERAGE(E6:G6)</f>
-        <v>3745.16642333333</v>
-      </c>
-      <c r="I6" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6" s="17" t="e">
         <f>STDEV(E6:G6)</f>
-        <v>50.4192981410584</v>
-      </c>
-      <c r="J6" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J6" s="17" t="e">
         <f>100*I6/H6</f>
-        <v>1.34624987095189</v>
-      </c>
-      <c r="K6" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K6" s="17" t="e">
         <f>H6/B8*B4/C10*C8/D6*C4*C6</f>
-        <v>100.346058276718</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" ht="15.6" spans="1:11">
       <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="22">
-        <v>3700.31128</v>
-      </c>
+      <c r="B7" s="22"/>
       <c r="C7" s="23" t="s">
         <v>17</v>
       </c>
@@ -1655,13 +1635,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" ht="16.35" spans="1:11">
+    <row r="8" ht="15.75" spans="1:11">
       <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="24" t="e">
         <f>AVERAGE(B5:B7)</f>
-        <v>3688.80005</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C8" s="15">
         <v>1000</v>
@@ -1669,39 +1649,33 @@
       <c r="D8" s="17">
         <v>989</v>
       </c>
-      <c r="E8" s="25">
-        <v>3692.55493</v>
-      </c>
-      <c r="F8" s="26">
-        <v>3805.26001</v>
-      </c>
-      <c r="G8" s="26">
-        <v>3772.30835</v>
-      </c>
-      <c r="H8" s="27">
+      <c r="E8" s="25"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="27" t="e">
         <f>AVERAGE(E8:G8)</f>
-        <v>3756.70776333333</v>
-      </c>
-      <c r="I8" s="27">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" s="27" t="e">
         <f>STDEV(E8:G8)</f>
-        <v>57.949482247124</v>
-      </c>
-      <c r="J8" s="27">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J8" s="27" t="e">
         <f>100*I8/H8</f>
-        <v>1.54256029209217</v>
-      </c>
-      <c r="K8" s="27">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K8" s="27" t="e">
         <f>H8/B8*B4/C10*C8/D8*C4*C6</f>
-        <v>100.858840618275</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" ht="15.6" spans="1:11">
       <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="24" t="e">
         <f>STDEV(B5:B7)</f>
-        <v>11.1867730067209</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
@@ -1715,13 +1689,13 @@
       <c r="J9" s="28"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" ht="15.6" spans="1:11">
+    <row r="10" spans="1:11">
       <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="24" t="e">
         <f>100*B9/B8</f>
-        <v>0.303263198196955</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C10" s="15">
         <v>532.5</v>
@@ -1748,7 +1722,7 @@
       <c r="J11" s="30"/>
       <c r="K11" s="30"/>
     </row>
-    <row r="12" ht="15.6" spans="1:11">
+    <row r="12" spans="1:11">
       <c r="A12" s="14" t="s">
         <v>19</v>
       </c>
@@ -1782,7 +1756,7 @@
       <c r="J13" s="30"/>
       <c r="K13" s="30"/>
     </row>
-    <row r="14" ht="15.6" spans="1:11">
+    <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -1824,9 +1798,7 @@
       <c r="C16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="11">
-        <v>24209</v>
-      </c>
+      <c r="D16" s="11"/>
       <c r="E16" s="13" t="s">
         <v>8</v>
       </c>
@@ -1864,7 +1836,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" ht="16.35" spans="1:18">
+    <row r="17" ht="15.75" spans="1:18">
       <c r="A17" s="14" t="s">
         <v>15</v>
       </c>
@@ -1878,46 +1850,40 @@
       <c r="D17" s="17">
         <v>1001</v>
       </c>
-      <c r="E17" s="18">
-        <v>3739.00952</v>
-      </c>
-      <c r="F17" s="19">
-        <v>3728.68945</v>
-      </c>
-      <c r="G17" s="19">
-        <v>3728.41309</v>
-      </c>
-      <c r="H17" s="17">
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="17" t="e">
         <f>AVERAGE(E17:G17)</f>
-        <v>3732.03735333333</v>
-      </c>
-      <c r="I17" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="17" t="e">
         <f>STDEV(E17:G17)</f>
-        <v>6.03965435544405</v>
-      </c>
-      <c r="J17" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J17" s="17" t="e">
         <f>100*I17/H17</f>
-        <v>0.161832634125423</v>
-      </c>
-      <c r="K17" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K17" s="17" t="e">
         <f>H17/B21*B17/C23*C21/D17*C17*C19</f>
-        <v>98.1465330984815</v>
-      </c>
-      <c r="N17" s="36">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N17" s="36" t="e">
         <f>K4</f>
-        <v>99.2704346562205</v>
-      </c>
-      <c r="O17" s="36">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O17" s="36" t="e">
         <f>K17</f>
-        <v>98.1465330984815</v>
-      </c>
-      <c r="P17" s="36">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P17" s="36" t="e">
         <f>K30</f>
-        <v>97.7502872968789</v>
-      </c>
-      <c r="Q17" s="53">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q17" s="53" t="e">
         <f>N17-P17</f>
-        <v>1.52014735934164</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="R17" s="50" t="s">
         <v>14</v>
@@ -1927,15 +1893,11 @@
       <c r="A18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="20">
-        <v>3687.96289</v>
-      </c>
+      <c r="B18" s="20"/>
       <c r="C18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="11">
-        <v>24210</v>
-      </c>
+      <c r="D18" s="11"/>
       <c r="E18" s="13" t="s">
         <v>8</v>
       </c>
@@ -1958,79 +1920,71 @@
         <v>14</v>
       </c>
       <c r="M18" s="33"/>
-      <c r="N18" s="36">
+      <c r="N18" s="36" t="e">
         <f>K6</f>
-        <v>100.346058276718</v>
-      </c>
-      <c r="O18" s="36">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O18" s="36" t="e">
         <f>K19</f>
-        <v>99.2460970035999</v>
-      </c>
-      <c r="P18" s="36">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P18" s="36" t="e">
         <f>K32</f>
-        <v>98.3112204821247</v>
-      </c>
-      <c r="Q18" s="53">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q18" s="53" t="e">
         <f>N18-P18</f>
-        <v>2.03483779459356</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="R18" s="50" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" ht="16.35" spans="1:18">
+    <row r="19" ht="15.75" spans="1:18">
       <c r="A19" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="20">
-        <v>3700.43555</v>
-      </c>
+      <c r="B19" s="20"/>
       <c r="C19" s="16">
         <v>1</v>
       </c>
       <c r="D19" s="17">
         <v>989</v>
       </c>
-      <c r="E19" s="21">
-        <v>3722.29492</v>
-      </c>
-      <c r="F19" s="19">
-        <v>3722.4209</v>
-      </c>
-      <c r="G19" s="19">
-        <v>3741.10669</v>
-      </c>
-      <c r="H19" s="17">
+      <c r="E19" s="21"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="17" t="e">
         <f>AVERAGE(E19:G19)</f>
-        <v>3728.60750333333</v>
-      </c>
-      <c r="I19" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="17" t="e">
         <f>STDEV(E19:G19)</f>
-        <v>10.8247964524159</v>
-      </c>
-      <c r="J19" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19" s="17" t="e">
         <f>100*I19/H19</f>
-        <v>0.29031740248172</v>
-      </c>
-      <c r="K19" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K19" s="17" t="e">
         <f>H19/B21*B17/C23*C21/D19*C17*C19</f>
-        <v>99.2460970035999</v>
-      </c>
-      <c r="N19" s="36">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N19" s="36" t="e">
         <f>K8</f>
-        <v>100.858840618275</v>
-      </c>
-      <c r="O19" s="36">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O19" s="36" t="e">
         <f>K21</f>
-        <v>99.3220415093712</v>
-      </c>
-      <c r="P19" s="36">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P19" s="36" t="e">
         <f>K34</f>
-        <v>98.7314945234715</v>
-      </c>
-      <c r="Q19" s="53">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q19" s="53" t="e">
         <f>N19-P19</f>
-        <v>2.1273460948038</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="R19" s="50" t="s">
         <v>14</v>
@@ -2040,15 +1994,11 @@
       <c r="A20" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="20">
-        <v>3693.11523</v>
-      </c>
+      <c r="B20" s="20"/>
       <c r="C20" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="11">
-        <v>24211</v>
-      </c>
+      <c r="D20" s="11"/>
       <c r="E20" s="13" t="s">
         <v>8</v>
       </c>
@@ -2081,9 +2031,9 @@
       <c r="A21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="24" t="e">
         <f>AVERAGE(B18:B20)</f>
-        <v>3693.83789</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C21" s="15">
         <v>1000</v>
@@ -2091,30 +2041,24 @@
       <c r="D21" s="17">
         <v>978</v>
       </c>
-      <c r="E21" s="21">
-        <v>3691.33643</v>
-      </c>
-      <c r="F21" s="19">
-        <v>3693.2373</v>
-      </c>
-      <c r="G21" s="19">
-        <v>3685.30054</v>
-      </c>
-      <c r="H21" s="17">
+      <c r="E21" s="21"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="17" t="e">
         <f>AVERAGE(E21:G21)</f>
-        <v>3689.95809</v>
-      </c>
-      <c r="I21" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" s="17" t="e">
         <f>STDEV(E21:G21)</f>
-        <v>4.14402047426146</v>
-      </c>
-      <c r="J21" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J21" s="17" t="e">
         <f>100*I21/H21</f>
-        <v>0.112305353426425</v>
-      </c>
-      <c r="K21" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K21" s="17" t="e">
         <f>H21/B21*B17/C23*C21/D21*C17*C19</f>
-        <v>99.3220415093712</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M21" s="38"/>
       <c r="N21" s="40"/>
@@ -2127,9 +2071,9 @@
       <c r="A22" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="24" t="e">
         <f>STDEV(B18:B20)</f>
-        <v>6.26765426420462</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>18</v>
@@ -2149,13 +2093,13 @@
       <c r="Q22" s="39"/>
       <c r="R22" s="51"/>
     </row>
-    <row r="23" ht="15.6" spans="1:11">
+    <row r="23" spans="1:11">
       <c r="A23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="24" t="e">
         <f>100*B22/B21</f>
-        <v>0.169678649980078</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C23" s="15">
         <v>532.5</v>
@@ -2182,7 +2126,7 @@
       <c r="J24" s="30"/>
       <c r="K24" s="30"/>
     </row>
-    <row r="25" ht="15.6" spans="1:11">
+    <row r="25" spans="1:11">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2208,7 +2152,7 @@
       <c r="J26" s="30"/>
       <c r="K26" s="30"/>
     </row>
-    <row r="27" ht="15.6" spans="1:11">
+    <row r="27" spans="1:11">
       <c r="A27" s="2" t="s">
         <v>0</v>
       </c>
@@ -2250,9 +2194,7 @@
       <c r="C29" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="11">
-        <v>24209</v>
-      </c>
+      <c r="D29" s="11"/>
       <c r="E29" s="13" t="s">
         <v>8</v>
       </c>
@@ -2275,7 +2217,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" ht="16.35" spans="1:11">
+    <row r="30" ht="15.75" spans="1:11">
       <c r="A30" s="14" t="s">
         <v>15</v>
       </c>
@@ -2289,45 +2231,35 @@
       <c r="D30" s="17">
         <v>1001</v>
       </c>
-      <c r="E30" s="18">
-        <v>3730.54004</v>
-      </c>
-      <c r="F30" s="19">
-        <v>3737.81763</v>
-      </c>
-      <c r="G30" s="19">
-        <v>3745.36792</v>
-      </c>
-      <c r="H30" s="17">
+      <c r="E30" s="18"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="17" t="e">
         <f>AVERAGE(E30:G30)</f>
-        <v>3737.90853</v>
-      </c>
-      <c r="I30" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I30" s="17" t="e">
         <f>STDEV(E30:G30)</f>
-        <v>7.41435792439926</v>
-      </c>
-      <c r="J30" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J30" s="17" t="e">
         <f>100*I30/H30</f>
-        <v>0.198355788133726</v>
-      </c>
-      <c r="K30" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K30" s="17" t="e">
         <f>H30/B34*B30/C36*C34/D30*C32*C30</f>
-        <v>97.7502872968789</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" ht="15.6" spans="1:11">
       <c r="A31" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="18">
-        <v>3695.58862</v>
-      </c>
+      <c r="B31" s="18"/>
       <c r="C31" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="11">
-        <v>24210</v>
-      </c>
+      <c r="D31" s="11"/>
       <c r="E31" s="8" t="s">
         <v>8</v>
       </c>
@@ -2350,58 +2282,46 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" ht="16.35" spans="1:11">
+    <row r="32" ht="15.75" spans="1:11">
       <c r="A32" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="20">
-        <v>3698.23926</v>
-      </c>
+      <c r="B32" s="20"/>
       <c r="C32" s="16">
         <v>1</v>
       </c>
       <c r="D32" s="17">
         <v>996</v>
       </c>
-      <c r="E32" s="21">
-        <v>3738.39844</v>
-      </c>
-      <c r="F32" s="19">
-        <v>3741.10596</v>
-      </c>
-      <c r="G32" s="19">
-        <v>3742.23633</v>
-      </c>
-      <c r="H32" s="17">
+      <c r="E32" s="21"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="17" t="e">
         <f>AVERAGE(E32:G32)</f>
-        <v>3740.58024333333</v>
-      </c>
-      <c r="I32" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I32" s="17" t="e">
         <f>STDEV(E32:G32)</f>
-        <v>1.97221535924293</v>
-      </c>
-      <c r="J32" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J32" s="17" t="e">
         <f>100*I32/H32</f>
-        <v>0.0527248509842267</v>
-      </c>
-      <c r="K32" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K32" s="17" t="e">
         <f>H32/B34*B30/C36*C34/D32*C32*C30</f>
-        <v>98.3112204821247</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33" ht="15.6" spans="1:11">
       <c r="A33" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="20">
-        <v>3709.58691</v>
-      </c>
+      <c r="B33" s="20"/>
       <c r="C33" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="11">
-        <v>24211</v>
-      </c>
+      <c r="D33" s="11"/>
       <c r="E33" s="13" t="s">
         <v>8</v>
       </c>
@@ -2424,13 +2344,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" ht="16.35" spans="1:11">
+    <row r="34" ht="15.75" spans="1:11">
       <c r="A34" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="24">
+      <c r="B34" s="24" t="e">
         <f>AVERAGE(B31:B33)</f>
-        <v>3701.13826333333</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C34" s="15">
         <v>1000</v>
@@ -2438,39 +2358,33 @@
       <c r="D34" s="17">
         <v>979</v>
       </c>
-      <c r="E34" s="21">
-        <v>3695.18677</v>
-      </c>
-      <c r="F34" s="19">
-        <v>3694.07349</v>
-      </c>
-      <c r="G34" s="19">
-        <v>3688.09814</v>
-      </c>
-      <c r="H34" s="17">
+      <c r="E34" s="21"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="17" t="e">
         <f>AVERAGE(E34:G34)</f>
-        <v>3692.4528</v>
-      </c>
-      <c r="I34" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I34" s="17" t="e">
         <f>STDEV(E34:G34)</f>
-        <v>3.81210517644773</v>
-      </c>
-      <c r="J34" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J34" s="17" t="e">
         <f>100*I34/H34</f>
-        <v>0.103240457845466</v>
-      </c>
-      <c r="K34" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K34" s="17" t="e">
         <f>H34/B34*B30/C36*C34/D34*C32*C30</f>
-        <v>98.7314945234715</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" ht="15.6" spans="1:11">
       <c r="A35" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="24">
+      <c r="B35" s="24" t="e">
         <f>STDEV(B31:B33)</f>
-        <v>7.43580499852126</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>18</v>
@@ -2484,13 +2398,13 @@
       <c r="J35" s="28"/>
       <c r="K35" s="28"/>
     </row>
-    <row r="36" ht="15.6" spans="1:11">
+    <row r="36" spans="1:11">
       <c r="A36" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="24">
+      <c r="B36" s="24" t="e">
         <f>100*B35/B34</f>
-        <v>0.200905896226217</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C36" s="15">
         <v>532.5</v>
@@ -2533,17 +2447,17 @@
       <c r="C39" s="35"/>
       <c r="D39" s="32"/>
       <c r="E39" s="32"/>
-      <c r="G39" s="36">
+      <c r="G39" s="36" t="e">
         <f t="shared" ref="G39:I41" si="0">N17</f>
-        <v>99.2704346562205</v>
-      </c>
-      <c r="H39" s="36">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H39" s="36" t="e">
         <f t="shared" si="0"/>
-        <v>98.1465330984815</v>
-      </c>
-      <c r="I39" s="36">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I39" s="36" t="e">
         <f t="shared" si="0"/>
-        <v>97.7502872968789</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J39" s="50" t="s">
         <v>14</v>
@@ -2558,17 +2472,17 @@
       <c r="D40" s="32"/>
       <c r="E40" s="33"/>
       <c r="F40" s="37"/>
-      <c r="G40" s="36">
+      <c r="G40" s="36" t="e">
         <f t="shared" si="0"/>
-        <v>100.346058276718</v>
-      </c>
-      <c r="H40" s="36">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H40" s="36" t="e">
         <f t="shared" si="0"/>
-        <v>99.2460970035999</v>
-      </c>
-      <c r="I40" s="36">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I40" s="36" t="e">
         <f t="shared" si="0"/>
-        <v>98.3112204821247</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J40" s="50" t="s">
         <v>14</v>
@@ -2582,17 +2496,17 @@
       <c r="C41" s="35"/>
       <c r="D41" s="32"/>
       <c r="E41" s="32"/>
-      <c r="G41" s="36">
+      <c r="G41" s="36" t="e">
         <f t="shared" si="0"/>
-        <v>100.858840618275</v>
-      </c>
-      <c r="H41" s="36">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H41" s="36" t="e">
         <f t="shared" si="0"/>
-        <v>99.3220415093712</v>
-      </c>
-      <c r="I41" s="36">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I41" s="36" t="e">
         <f t="shared" si="0"/>
-        <v>98.7314945234715</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J41" s="50" t="s">
         <v>14</v>
